--- a/roth.xlsx
+++ b/roth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\ARP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAFE448-4600-42C3-8F33-F08265476857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C7A9F1-C859-4FB3-A487-4BBC2455860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="3285" windowWidth="21600" windowHeight="11175" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8250" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Bonnie" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>big ticket items</t>
   </si>
   <si>
-    <t>anticipated income</t>
-  </si>
-  <si>
     <t>Roth X</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>ctrb Roth IRA</t>
+  </si>
+  <si>
+    <t>anticipated wages</t>
   </si>
 </sst>
 </file>
@@ -123,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +163,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +269,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,57 +422,57 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -481,7 +481,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
-        <f>0.15*B2</f>
+        <f t="shared" ref="D2:D7" si="0">0.15*B2</f>
         <v>15000</v>
       </c>
       <c r="E2" s="1"/>
@@ -490,7 +490,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <f>0.15*B3</f>
+        <f t="shared" si="0"/>
         <v>15750</v>
       </c>
       <c r="E3" s="1"/>
@@ -508,7 +508,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -517,7 +517,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <f>0.15*B4</f>
+        <f t="shared" si="0"/>
         <v>15750</v>
       </c>
       <c r="E4" s="1"/>
@@ -526,7 +526,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -535,7 +535,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <f>0.15*B5</f>
+        <f t="shared" si="0"/>
         <v>16500</v>
       </c>
       <c r="E5" s="1"/>
@@ -544,7 +544,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -553,7 +553,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <f>0.15*B6</f>
+        <f t="shared" si="0"/>
         <v>16500</v>
       </c>
       <c r="E6" s="1"/>
@@ -562,7 +562,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -571,7 +571,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <f>0.15*B7</f>
+        <f t="shared" si="0"/>
         <v>18000</v>
       </c>
       <c r="E7" s="1"/>
@@ -580,7 +580,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -593,7 +593,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -606,7 +606,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -632,7 +632,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -671,7 +671,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2037</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2038</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -710,7 +710,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -736,7 +736,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -749,7 +749,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -775,7 +775,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -814,7 +814,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -827,7 +827,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -840,7 +840,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -853,7 +853,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2051</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2052</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2053</v>
       </c>
@@ -892,7 +892,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2054</v>
       </c>
@@ -915,53 +915,53 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -970,7 +970,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
-        <f>0.15*B2</f>
+        <f t="shared" ref="D2:D7" si="0">0.15*B2</f>
         <v>12000</v>
       </c>
       <c r="E2" s="1"/>
@@ -979,7 +979,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -988,7 +988,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <f>0.15*B3</f>
+        <f t="shared" si="0"/>
         <v>12750</v>
       </c>
       <c r="E3" s="1"/>
@@ -997,7 +997,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <f>0.15*B4</f>
+        <f t="shared" si="0"/>
         <v>12750</v>
       </c>
       <c r="E4" s="1"/>
@@ -1015,7 +1015,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <f>0.15*B5</f>
+        <f t="shared" si="0"/>
         <v>13500</v>
       </c>
       <c r="E5" s="1"/>
@@ -1033,7 +1033,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <f>0.15*B6</f>
+        <f t="shared" si="0"/>
         <v>14250</v>
       </c>
       <c r="E6" s="1"/>
@@ -1051,7 +1051,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <f>0.15*B7</f>
+        <f t="shared" si="0"/>
         <v>14250</v>
       </c>
       <c r="E7" s="1"/>
@@ -1069,7 +1069,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -1095,7 +1095,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -1108,7 +1108,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2037</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2038</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2051</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2052</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2053</v>
       </c>
@@ -1381,7 +1381,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2054</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2055</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2056</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2057</v>
       </c>
